--- a/data/IPA/MyFeatures.xlsx
+++ b/data/IPA/MyFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKU\科研\Reconstruction of Middle Chinese via Optimization\TACL final code\data\IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637BF8A-188D-41BA-AD74-FE7E12B5EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A197E2F-32F1-44B1-B046-C1ED2251AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2009,8 +2009,8 @@
   <dimension ref="A1:P363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E350" sqref="E350"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
